--- a/Datos/tablas/recursos_patrimonio_inmaterial.xlsx
+++ b/Datos/tablas/recursos_patrimonio_inmaterial.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Recursos_patrimonio\prueba_tablero\Datos\tablas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601BC32-CEC1-42D4-89D0-D69E9DD8C7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="recursos_patrimonio_inmaterial" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="recursos_patrimonio_inmaterial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="298">
   <si>
     <t>id_recurso</t>
   </si>
@@ -63,7 +73,7 @@
     <t>A-39</t>
   </si>
   <si>
-    <t>Gastronomía </t>
+    <t>Gastronomía</t>
   </si>
   <si>
     <t>Gastronomía propia del grupo social afrodescendiente. Según Ross (1991) la gastronomía limonense, por la peculiaridad  de su composición étnica, se diferencia de la cocina de otras provincias costarricenses. Ross de Cerdas (1991) indica que dicha cocina tiene raíces en las Antillas y en el continente Africano, lugar desde donde se importaron productos utilizados actualmente en la preparación de los platillos de las zonas.
@@ -73,7 +83,7 @@
 Del modo de vida de las plantaciones azucareras antillanas, según el libro se ha heredado una amplia gama de productos de subsistencia, que figuraban en las raciones diarias de los esclavos como lo son la fruta de pan, el bacalao seco, los mangos, la yuca, los plátanos entre otros. Del Reino Unido también múltiples recetas de queques, panes y galletas, que debían prepararse para los amos ingleses en las islas, y que han venido a darle más sabor y colorido a la cocina limonense. Además, de toda esta variedad y debido a la multiculturalidad de la zona, los inmigrantes chinos e hindúes trajeron también a Limón la sabiduría de sus cocinas milenarias, y han enriquecido con exóticas salsas y soberbios platillos esa mezcla colorida y sabrosa que se encuentra en la costa Caribe.</t>
   </si>
   <si>
-    <t>Patrimonio Natural y Cultural </t>
+    <t>Patrimonio Natural y Cultural</t>
   </si>
   <si>
     <t>Gastronomía</t>
@@ -85,7 +95,7 @@
     <t>Continua</t>
   </si>
   <si>
-    <t>Se puede extrar del libro Magia de la Cocina Limonense: Rice and Beans y Calalú (Ross, 1991), que la construcción del ferrocarril al Atlántico es un momento importante en el desarrollo físico y cultural de Limón, ya que marca la llegada de la población afrodescendiente proveniente de Jamaica, y la mezcla de esta cultura con los chinos, hindúes, italianos y judíos provenientes de Polonia, sin olvidar el impacto de estas migraciones para con los pueblos originarios como los Bribrís y Cabécares.  </t>
+    <t>Se puede extrar del libro Magia de la Cocina Limonense: Rice and Beans y Calalú (Ross, 1991), que la construcción del ferrocarril al Atlántico es un momento importante en el desarrollo físico y cultural de Limón, ya que marca la llegada de la población afrodescendiente proveniente de Jamaica, y la mezcla de esta cultura con los chinos, hindúes, italianos y judíos provenientes de Polonia, sin olvidar el impacto de estas migraciones para con los pueblos originarios como los Bribrís y Cabécares.</t>
   </si>
   <si>
     <t>Comunicación oral y escrita</t>
@@ -103,7 +113,7 @@
     <t>Celebración de origen jamaiquino muy común en Limón que consiste en la velación de un ser querido cuando este fallece. Su principal diferencia entre las velas tradicionales (por lo menos con las comúnmente conocidas en el valle central donde es una celebración lúgubre, triste y silenciosa) estas son más consideradas una fiesta en honor a la persona que falleció, para honrar al difunto, recordar a la persona y hacer una despedida alegre de la persona que murió. Esta celebración se distingue porque siempre se sirve sopa de mondongo. Entre los platillos más habituales también se sirve el agua de sapo (bebida a base de tapa de dulce y jengibre), arroz con pollo, paty, plantain tart, entre otros. Se suele jugar dominó, a veces tablero e ingerir licor. Siempre hay música y cantos (Es muy común y tradicional la música Góspel (normalmente en inglés), pero también se pone música ranchera, salsas, calipso, música tropical o ritmos movidos y alegres) Actualmente, esas tradiciones se están perdiendo ya que las morgues han cambiado esas costumbres y celebraciones y no permiten esas cosas dentro del local. La gente que así lo desee lo hace en la acera de la funeraria. Por norma, el ataúd tiene que ser blanco, café o negro y las personas no pueden llegar vestidas con prendas rojas, ya que se considera una falta de respeto. Normalmente se invita a un pastor o sacerdote para la santa sepultura del fallecido.</t>
   </si>
   <si>
-    <t>Presentaciones artísticas y celebraciones </t>
+    <t>Presentaciones artísticas y celebraciones</t>
   </si>
   <si>
     <t>otros</t>
@@ -163,7 +173,7 @@
     <t>En esta fecha se celebran los aportes de la población afrodescendiente a la cultura costarricense, cuya impronta quedó en mayor medida marcada por el ingreso de trabajadores afroantillanos para la construcción del ferrocarril y cuya permanencia en el país aumento la diversidad étnica y cultural costarricense. En el marco de esta festividad se realizan actividades como el Parade de Gala y el festival Back to our roots</t>
   </si>
   <si>
-    <t>Festivales, festividades y ferias </t>
+    <t>Festivales, festividades y ferias</t>
   </si>
   <si>
     <t>Periódica</t>
@@ -193,7 +203,7 @@
     <t>Idiomas</t>
   </si>
   <si>
-    <t>Provincial </t>
+    <t>Provincial</t>
   </si>
   <si>
     <t>Tiene su origen en la fuerte oleada migratoria de trabajadores que ingresaron al país a raíz de la construcción del ferrocarril al Atlántico. Posteriormente se vio fortalecido por el dominio de la región por la transnacional United Fruit Company (Herzfeld, 2003)</t>
@@ -217,7 +227,7 @@
     <t>Música</t>
   </si>
   <si>
-    <t>Las marchas fúnebres son ritmos suaves que fueron adoptadas por la Iglesia para las actividades religiosas. </t>
+    <t>Las marchas fúnebres son ritmos suaves que fueron adoptadas por la Iglesia para las actividades religiosas.</t>
   </si>
   <si>
     <t>B.1-2</t>
@@ -253,7 +263,7 @@
     <t>El calypso limonense es considerado por la población, como una auténtica expresión musical de su etnia y parte de su identidad cultural. Este género musical fortalece la vinculación del inglés criollo, característica de la población afrodescendiente. Los intérpretes de este género musical son denominados calypsonians y han sido reconocidos como cronistas de los lugares, críticos de la realidad social y transmisores orales de las tradiciones.</t>
   </si>
   <si>
-    <t>La mayoría de los poetas se han dedicado los últimos años y continuan en los diferentes procesos de escritura y publicación. </t>
+    <t>La mayoría de los poetas se han dedicado los últimos años y continuan en los diferentes procesos de escritura y publicación.</t>
   </si>
   <si>
     <t>Llegó al país por personas de etnia negra, principalmente procedentes de las islas de Jamaica, Barbados y Saint Kitts. Desde entonces es reproducida en toda la provincia.</t>
@@ -274,7 +284,7 @@
     <t>El Gran Parade de Gala se realiza para conmemorar el Día de la Persona Negra y la Cultura Afrolimonense, es una especie de desfile temático a la usanza caribeña, donde participan gran número de personas con trajes tradicionales y de gala, así como carrozas, músicos y bailarines. Esta actividad es la culminación del Festival de la Cultura Negra Back to Our Roots.</t>
   </si>
   <si>
-    <t>Esta actividad se realiza anualmente desde 1998 y es organizada por el  Comité Cívico, Cultural Étnico Negro de Limón. Esta actividad se enmarca en la celebración del Día del Negro y la Cultura Afrocostarricense y marca el punto de cierre del Festival de la Cultura Negra Limón. Esta fecha se escogió  en conmemoración de  la Primera Convención Internacional sobre la situación de los Negros, que concluyó un 31 de agosto en Nueva York  y como resultado de las discusiones en esa convención,  se promulgó “La Declaración sobre los Derechos de los Negros”. </t>
+    <t>Esta actividad se realiza anualmente desde 1998 y es organizada por el  Comité Cívico, Cultural Étnico Negro de Limón. Esta actividad se enmarca en la celebración del Día del Negro y la Cultura Afrocostarricense y marca el punto de cierre del Festival de la Cultura Negra Limón. Esta fecha se escogió  en conmemoración de  la Primera Convención Internacional sobre la situación de los Negros, que concluyó un 31 de agosto en Nueva York  y como resultado de las discusiones en esa convención,  se promulgó “La Declaración sobre los Derechos de los Negros”.</t>
   </si>
   <si>
     <t>B.2-10</t>
@@ -289,7 +299,7 @@
     <t>Fue un festival que se realizó por algunos años en la ciudad de Limón. Las actividades se desarrollaron con el fin de rescatar, valorizar y promocionar la cultura limonense, organizado en el marco de la Semana Cultural  y el Mayo Cultural o May Pole, contó con el el apoyo del Programa Corredor Cultural Caribe del Ministerio de Cultura y Juventud  y la Alianza Cultural Comunitaria.</t>
   </si>
   <si>
-    <t>Local / Internacional </t>
+    <t>Local / Internacional</t>
   </si>
   <si>
     <t>Este festival estuvo vinculado a los esfuerzos del Programa Corredor Cultural Caribe, el cual fue un esfuerzo del Ministerio de Cultura y Juventud de Costa Rica, en conjunto con las autoridades de cultura de Centroamérica y República Dominicana, para visibilizar la riqueza cultural y el aporte de los pueblos caribeños al desarrollo de la  región.</t>
@@ -343,7 +353,7 @@
     <t>Consiste en un festival de calypso que se realiza como actividad paralela a la celebración del Día de la Persona Negra, se realiza en el día previo o posterior al 31 de agosto por la noche, normalmente en la playa Los Baños y en la que participan gran número de calyposonians. El festival es organizado por la Municipalidad de Limón y el Comité Cívico, Cultural Étnico Negro de Limón</t>
   </si>
   <si>
-    <t>Local/ Provincial / Regional / Nacional </t>
+    <t>Local/ Provincial / Regional / Nacional</t>
   </si>
   <si>
     <t>Es un festival que busca poner en valor el calipso</t>
@@ -361,16 +371,16 @@
     <t>Día del Cantonato de Limón</t>
   </si>
   <si>
-    <t>El Día del Cantonato de Limón tiene lugar cada 25 de Julio para conmemorar el aniversario de su declaratoria como cantón central en 1892. Consta de actividades variadas pero suele iniciar con un acto solemne a cargo de Concejo Municipal en la Casa de la Cultura. Se realiza una amplia gama de actividades culturales para locales y visitantes. Entre ellas se encuentran el desfile de bandas, tope de caballista, juegos tradicionales, presentaciones artísticas (obras de teatro, conciertos), puestos gastronómicos y actividades deportivas. El Parque Vargas se convierte en uno de los principales escenarios puesto que en él se desarrollan o cierran algunas de las actividades. El programa de la celebración no se limita al día oficial sino que puede extenderse todo un fin de semana, una semana y hasta incluso un mes.  </t>
+    <t>El Día del Cantonato de Limón tiene lugar cada 25 de Julio para conmemorar el aniversario de su declaratoria como cantón central en 1892. Consta de actividades variadas pero suele iniciar con un acto solemne a cargo de Concejo Municipal en la Casa de la Cultura. Se realiza una amplia gama de actividades culturales para locales y visitantes. Entre ellas se encuentran el desfile de bandas, tope de caballista, juegos tradicionales, presentaciones artísticas (obras de teatro, conciertos), puestos gastronómicos y actividades deportivas. El Parque Vargas se convierte en uno de los principales escenarios puesto que en él se desarrollan o cierran algunas de las actividades. El programa de la celebración no se limita al día oficial sino que puede extenderse todo un fin de semana, una semana y hasta incluso un mes.</t>
   </si>
   <si>
     <t>Esta actividad se realiza anualmente para celebrar la instauración del cantón de Limón como resultado de la creación de la Municipalidad en la comarca Limón según el Decreto 61 de 25 de julio de 1892.</t>
   </si>
   <si>
-    <t>Es una celebración conmemorativa en la que participan entidades gubermentales, instituciones de caracter público y privado y colectivos de la localidad. </t>
-  </si>
-  <si>
-    <t>A través de las actividades culturales en las que participan e interactúan personas de diferentes edades, sexos y etnias tanto del cantón como visitantes. </t>
+    <t>Es una celebración conmemorativa en la que participan entidades gubermentales, instituciones de caracter público y privado y colectivos de la localidad.</t>
+  </si>
+  <si>
+    <t>A través de las actividades culturales en las que participan e interactúan personas de diferentes edades, sexos y etnias tanto del cantón como visitantes.</t>
   </si>
   <si>
     <t>B.2-7</t>
@@ -385,7 +395,7 @@
     <t>Las actividades de fin y principio de año que se celebran en Limón con elementos que destacan, entre ellos, su gastronomía: sopa levantamuertos, rice and beans con rabo de chancho y queque negros.</t>
   </si>
   <si>
-    <t>Celebración anual del inicio de un nuevo año. </t>
+    <t>Celebración anual del inicio de un nuevo año.</t>
   </si>
   <si>
     <t>B.2-8</t>
@@ -397,16 +407,16 @@
     <t>Feria del Mar Caribe</t>
   </si>
   <si>
-    <t>La Feria del Mar Caribe nace con el propósito de facilitar la promoción, el desarrollo y el apoyo de la actividad pesquera y acuícola del Caribe limonense por lo que reúne a pescadores, artesanos, empresarios, compradores e instituciones gubernamentales. La Feria se dispone en el Parque Vargas y es ahí donde los participantes colocan sus puestos y venden sus productos. Lo anterior se acompaña de presentaciones artísticas y de puestos que ofrecen información sobre la importancia del consumo de pescado y mariscos. </t>
+    <t>La Feria del Mar Caribe nace con el propósito de facilitar la promoción, el desarrollo y el apoyo de la actividad pesquera y acuícola del Caribe limonense por lo que reúne a pescadores, artesanos, empresarios, compradores e instituciones gubernamentales. La Feria se dispone en el Parque Vargas y es ahí donde los participantes colocan sus puestos y venden sus productos. Lo anterior se acompaña de presentaciones artísticas y de puestos que ofrecen información sobre la importancia del consumo de pescado y mariscos.</t>
   </si>
   <si>
     <t>Esta actividad se realiza anualmente en el primer fin de semana del mes de Noviembre con el fin de recordar el privilegio de la cercanía y riqueza de las costas así como valorar y apoyar la actividad pesquera, especialmente la artesanal.</t>
   </si>
   <si>
-    <t>Es una actividad comercial y cultural en la que participan personas y empresas relacionadas con la actividad, entidades gubermentales, instituciones de caracter público y privado y colectivos de la localidad.  </t>
-  </si>
-  <si>
-    <t>A través de las actividades comerciales, los puestos informativos de instituciones estatales y las presentacione culturales en las que participan e interactúan personas de diferentes edades, sexos y etnias tanto del cantón como visitantes.  </t>
+    <t>Es una actividad comercial y cultural en la que participan personas y empresas relacionadas con la actividad, entidades gubermentales, instituciones de caracter público y privado y colectivos de la localidad.</t>
+  </si>
+  <si>
+    <t>A través de las actividades comerciales, los puestos informativos de instituciones estatales y las presentacione culturales en las que participan e interactúan personas de diferentes edades, sexos y etnias tanto del cantón como visitantes.</t>
   </si>
   <si>
     <t>B.2-9</t>
@@ -424,13 +434,13 @@
     <t>Local / Nacional</t>
   </si>
   <si>
-    <t>Las ferias que se realizan en el país tiene como antecedente su aparición en la década de los ochenta y su formalización en el 2006 a través de la Ley 5833. A lo largo del tiempo, la feria del agricultor de Limón tuvo distintas ubicaciones en el centro del cantón pero desde el 2014 su campo ferial está ubicado dentro del terreno del Centro Agrícola Cantonal. </t>
-  </si>
-  <si>
-    <t>Esta actividad se realiza semanalmente y en la que participan pequeños y medianos productores que interactúan con colectivos de la localidad y visitantes. </t>
-  </si>
-  <si>
-    <t>A través de la promoción y la interacción, se la brinda información acerca de los productos, de sus propiedades y sus cualidades. </t>
+    <t>Las ferias que se realizan en el país tiene como antecedente su aparición en la década de los ochenta y su formalización en el 2006 a través de la Ley 5833. A lo largo del tiempo, la feria del agricultor de Limón tuvo distintas ubicaciones en el centro del cantón pero desde el 2014 su campo ferial está ubicado dentro del terreno del Centro Agrícola Cantonal.</t>
+  </si>
+  <si>
+    <t>Esta actividad se realiza semanalmente y en la que participan pequeños y medianos productores que interactúan con colectivos de la localidad y visitantes.</t>
+  </si>
+  <si>
+    <t>A través de la promoción y la interacción, se la brinda información acerca de los productos, de sus propiedades y sus cualidades.</t>
   </si>
   <si>
     <t>B.3-1</t>
@@ -487,14 +497,14 @@
     <t>B-18</t>
   </si>
   <si>
-    <t>Buggy-buggy </t>
+    <t>Buggy-buggy</t>
   </si>
   <si>
     <t>Este baile se acompañó de la música Boogie surgida de imprimirle variables a la música Blues. Se caracteriza por ser muy dinámico ya que se baila con pasos muy rápidos, enérgicos y vistosos.
 El momento en el que el Boogie Woogie estuvo en su máximo auge fue en las décadas 20 y 30 del siglo XX.</t>
   </si>
   <si>
-    <t>Provincial / Internacional </t>
+    <t>Provincial / Internacional</t>
   </si>
   <si>
     <t>Periódico / Ocasional</t>
@@ -515,7 +525,7 @@
     <t>B-19</t>
   </si>
   <si>
-    <t>Teatro negro </t>
+    <t>Teatro negro</t>
   </si>
   <si>
     <t>Los teatros en la ciudad de Limón eran establecimientos en los que se desarrollaban distintas actividades de carácter social. Según Villegas (2005) la teatralidad afrolatinoamericana se pone de manifiesto en una multiplicidad de actividades destacándose particularmente en ceremonias públicas y religiosas cargadas de danzas, coloridos trajes y expresiones corporales.Son reconocidos por la gestualidad, las cargadas decoraciones y el uso de disfraces. La prácticas escénicas están colmadas de máscaras, ritmos y actividades de carácter ritual acompañados por instrumentos asociables a culturas africanas. Estas caracterísitcas se han transmitido y son evidentes en danzas, carnavales celebraciones religiosas y reuniones sociales. 
@@ -528,7 +538,7 @@
     <t>Inmigrantes afrodescendientes</t>
   </si>
   <si>
-    <t>Transmisión por observación y contacto </t>
+    <t>Transmisión por observación y contacto</t>
   </si>
   <si>
     <t>B.4-5</t>
@@ -541,13 +551,13 @@
   </si>
   <si>
     <t>Según la Red Internacional de Narración Oral, el cuentacuentos es una persona que recaba su material de fuentes de tradición oral o de referencias literarias, modificándolo al momento de expresar una historia oralmente. Es un narrador oral de historias, que no suele estar implicado directamente en la historia relatada, no obstante tampoco es lejano a ella. 
-En el caso de Limón, se contratan o se invitan a los cuenteros a escuelas e iglesias para poder transmitir las obras literarias. Cada narrador (a) tiene su estilo y temática por narrar (Mata, 25 de enero de 2021). </t>
-  </si>
-  <si>
-    <t>Provincial / Regional / Internacional </t>
-  </si>
-  <si>
-    <t>La cuentera costarricense, Margarita Mata Quesada, relata que las historias del Hermano Anancy ya que son parte del patrimonio inmaterial costarricense, traídas por los hermanos afro-antillanos a toda la costa caribeña de Costa Rica y el resto de Centroamérica (Youtube, 2020). </t>
+En el caso de Limón, se contratan o se invitan a los cuenteros a escuelas e iglesias para poder transmitir las obras literarias. Cada narrador (a) tiene su estilo y temática por narrar (Mata, 25 de enero de 2021).</t>
+  </si>
+  <si>
+    <t>Provincial / Regional / Internacional</t>
+  </si>
+  <si>
+    <t>La cuentera costarricense, Margarita Mata Quesada, relata que las historias del Hermano Anancy ya que son parte del patrimonio inmaterial costarricense, traídas por los hermanos afro-antillanos a toda la costa caribeña de Costa Rica y el resto de Centroamérica (Youtube, 2020).</t>
   </si>
   <si>
     <t>Vivencias propias y experiencias</t>
@@ -571,7 +581,7 @@
     <t>La danza llegó con la inmigración proveniente de las Antillas y fue diseminada por la provincia</t>
   </si>
   <si>
-    <t>Por transmisión visual, de observación y por contacto directo entre practicante y danzante. La música mediante tradición oral por tratarse de una interpretación de oído. </t>
+    <t>Por transmisión visual, de observación y por contacto directo entre practicante y danzante. La música mediante tradición oral por tratarse de una interpretación de oído.</t>
   </si>
   <si>
     <t>B.5-1</t>
@@ -583,7 +593,7 @@
     <t>Poetas limonenses</t>
   </si>
   <si>
-    <t>La temática de las obras poéticas es variada, cada uno de los poetas escribe sobre sus vivencias (en especial sobre el amor). La Biblioteca Pública de Limón Major Thomas Lynch hace una celebración de la poesía cada 31 de enero y convoca a los y las poetas limonenses (Mata, 25 de enero de 2021). </t>
+    <t>La temática de las obras poéticas es variada, cada uno de los poetas escribe sobre sus vivencias (en especial sobre el amor). La Biblioteca Pública de Limón Major Thomas Lynch hace una celebración de la poesía cada 31 de enero y convoca a los y las poetas limonenses (Mata, 25 de enero de 2021).</t>
   </si>
   <si>
     <t>Poesía</t>
@@ -613,13 +623,13 @@
     <t>En su gran mayoría las pinturas buscan ser realistas, representando los paisajes y a las personas con detalle incluyendo su indumentaria típica que refleja costumbres y estilo de vida del ser limonense.</t>
   </si>
   <si>
-    <t>Artes Visuales y Artísticas </t>
+    <t>Artes Visuales y Artísticas</t>
   </si>
   <si>
     <t>Bellas artes /Pintura</t>
   </si>
   <si>
-    <t>Nacional / Internacional </t>
+    <t>Nacional / Internacional</t>
   </si>
   <si>
     <t>C.2-1</t>
@@ -643,10 +653,10 @@
     <t>Artesanía</t>
   </si>
   <si>
-    <t>Entre los materiales predominantes en las artesanías limonenses se encuentran: papel maché, naturaleza seca, balsa y otras técnicas (Brenes, 2014) y materiales reciclados (Morales, 2015) y cerámica (Arrieta, 2015) . Entre los productos más habituales se encuentran: las escenas religiosas, el pasito, de familia, bolsos de manta pintados, tapices bordados, folleto de colorear, carteritas, calendarios, folletos de misa, lienzos pintados, folletos para colorear, delantales, tapices de mesa, tapices para la pared. Artesanas más destacables: María I. Álvarez Valverde, Gilda Aviles Aviles, Gladys Cárdenas Yaczayo, Georgina Givans Rose, Lisbeth González Ramírez, Ildith Hodgonson Clair, Anita Callemore (Arrieta, 2015) </t>
-  </si>
-  <si>
-    <t>Local / Provincial </t>
+    <t>Entre los materiales predominantes en las artesanías limonenses se encuentran: papel maché, naturaleza seca, balsa y otras técnicas (Brenes, 2014) y materiales reciclados (Morales, 2015) y cerámica (Arrieta, 2015) . Entre los productos más habituales se encuentran: las escenas religiosas, el pasito, de familia, bolsos de manta pintados, tapices bordados, folleto de colorear, carteritas, calendarios, folletos de misa, lienzos pintados, folletos para colorear, delantales, tapices de mesa, tapices para la pared. Artesanas más destacables: María I. Álvarez Valverde, Gilda Aviles Aviles, Gladys Cárdenas Yaczayo, Georgina Givans Rose, Lisbeth González Ramírez, Ildith Hodgonson Clair, Anita Callemore (Arrieta, 2015)</t>
+  </si>
+  <si>
+    <t>Local / Provincial</t>
   </si>
   <si>
     <t>Algunas artesanías son producto de las vivencias de la niñez, escenas caribeñas actuales o del pasado, vestimentas y costumbres y tradiciones de las artesanas.</t>
@@ -655,7 +665,7 @@
     <t>Tradiciones familiares</t>
   </si>
   <si>
-    <t>Transmisión oral, cursos </t>
+    <t>Transmisión oral, cursos</t>
   </si>
   <si>
     <t>D.1-1</t>
@@ -697,7 +707,7 @@
     <t>El documento ha sido actualizado de manera digital y esta disponible en sitios de fácil acceso paa su consulta. Se trata de un libro que da seguimietno a la arqutectura de Puerto Limón y sus paralelismos en otras partes del mundo como Bocas del Toro, esto como consecuencia de dos variables fundamentales: su contexto histórico y clima tropical. Analizando sus características formales e históricas, establece una descripción detallada de edificaciones como viviendas tradicionales limonenses, sus estrategias de bioclimatización, distribución  espacial y materialidad.</t>
   </si>
   <si>
-    <t>Su publicación oficial se da en el año 1991. Dentro de los eventos históricos más sobresalientes en los que se enmarca el contenido de este libro son la construcción del ferrocarril al Atlántico, el surgimiento de la ciudad de Limón, la construcción de muelles alrededor de la costa, así como la influencia de culturas españolas, inglesas, francesas y africanas que consolidan el estilo caribeño que identifica a Puerto Limón. </t>
+    <t>Su publicación oficial se da en el año 1991. Dentro de los eventos históricos más sobresalientes en los que se enmarca el contenido de este libro son la construcción del ferrocarril al Atlántico, el surgimiento de la ciudad de Limón, la construcción de muelles alrededor de la costa, así como la influencia de culturas españolas, inglesas, francesas y africanas que consolidan el estilo caribeño que identifica a Puerto Limón.</t>
   </si>
   <si>
     <t>Análisis de estudios de caso, tipologías y su comparación.</t>
@@ -743,7 +753,7 @@
     <t>D-04</t>
   </si>
   <si>
-    <t>Libros de literatura </t>
+    <t>Libros de literatura</t>
   </si>
   <si>
     <t>Esta ficha recopila los libros algunos de ficción como novelas, o cuentos y leyendas que se han transmitido de generación en generación. También algunos libros de poesía. En su mayoría se dan en un contexto limonense, y algunos representan una crítica social de cierto modo de vida en una época.</t>
@@ -773,7 +783,7 @@
     <t>D-06</t>
   </si>
   <si>
-    <t>Revistas </t>
+    <t>Revistas</t>
   </si>
   <si>
     <t>Limón Roots: Se trata de un medio de comunicación impreso y digital que tiene como función principal promover y rescatar valores y etnias asociadas a la cultura caribeña. Más que ser únicamente un espacio de difusión, este medio ofrece oportunidades de crecimiento  socioeconómico y turístico vinculando esfuerzos con entes internacionales con la oferta de intercambios y otros servicios. Como extensión a esta revista, se encuentra la radio que lleva el mismo nombre, la cual transmiste desde diferentes países como Brasil.
@@ -799,10 +809,10 @@
     <t>Otros materiales impresos: Monografías</t>
   </si>
   <si>
-    <t>Las monografías relatan acontecimientos de: Época colonial al Periodo de construcción del Estado Nacional (construcción del ferrocarril al Atlántico), desarrollo capitalista e inmigración antillana, la evolución de las estructuras sociales (1940-1980) y hasta nuestros días. </t>
-  </si>
-  <si>
-    <t>Experiencia, relatos, entrevistas, testimonios </t>
+    <t>Las monografías relatan acontecimientos de: Época colonial al Periodo de construcción del Estado Nacional (construcción del ferrocarril al Atlántico), desarrollo capitalista e inmigración antillana, la evolución de las estructuras sociales (1940-1980) y hasta nuestros días.</t>
+  </si>
+  <si>
+    <t>Experiencia, relatos, entrevistas, testimonios</t>
   </si>
   <si>
     <t>De manera oral y escrita.</t>
@@ -829,10 +839,10 @@
     <t>Filmes y videos</t>
   </si>
   <si>
-    <t>Esta ficha recopila filmes, grabaciones y documentales que se han realizado con base en temáticas históricas relacionadas a la provincia de Limón y sus antecedentes históricos mas destacados. </t>
-  </si>
-  <si>
-    <t>Medios audiovisuales e interactivos </t>
+    <t>Esta ficha recopila filmes, grabaciones y documentales que se han realizado con base en temáticas históricas relacionadas a la provincia de Limón y sus antecedentes históricos mas destacados.</t>
+  </si>
+  <si>
+    <t>Medios audiovisuales e interactivos</t>
   </si>
   <si>
     <t>Los filmes fueron realizados en su mayoría en los ultimas decadas, en su mayoía abarcan temas de carácter histórico, de crítica social y sobre la cultura afrodescendiente de Costa Rica.</t>
@@ -868,16 +878,16 @@
     <t>Moda</t>
   </si>
   <si>
-    <t>Sherrier Fashion African Boutique es una tienda de moda caribeña con estilo afrocaribeño para toda la familia (ropa y accesorios para mujeres, hombres, jóvenes y niños) que también vende artículos para decorar el hogar. La tienda boutique está ubicada en el Casco Histórico de Limón, frente al antiguo Black Star Line (Facebook, 2020).  </t>
-  </si>
-  <si>
-    <t>Diseño y servicios creativos </t>
-  </si>
-  <si>
-    <t>Local / Provincial/ Nacional </t>
-  </si>
-  <si>
-    <t>Ocasional </t>
+    <t>Sherrier Fashion African Boutique es una tienda de moda caribeña con estilo afrocaribeño para toda la familia (ropa y accesorios para mujeres, hombres, jóvenes y niños) que también vende artículos para decorar el hogar. La tienda boutique está ubicada en el Casco Histórico de Limón, frente al antiguo Black Star Line (Facebook, 2020).</t>
+  </si>
+  <si>
+    <t>Diseño y servicios creativos</t>
+  </si>
+  <si>
+    <t>Local / Provincial/ Nacional</t>
+  </si>
+  <si>
+    <t>Ocasional</t>
   </si>
   <si>
     <t>Los elementos de la moda son utilizados tradicionalmente desde hace muchos años y es parte e la cultura e imagen de las personas afrodescendientes en la actualidad también.</t>
@@ -886,7 +896,7 @@
     <t>Herencia cultural, transmición oral.</t>
   </si>
   <si>
-    <t>A través de las piezas de moda y las telas utilizadas: vestidos, sombreros, enaguas, jackets, pantalones, etc. </t>
+    <t>A través de las piezas de moda y las telas utilizadas: vestidos, sombreros, enaguas, jackets, pantalones, etc.</t>
   </si>
   <si>
     <t>G.1-1</t>
@@ -898,7 +908,7 @@
     <t>Viajes contratados y servicios turísticos</t>
   </si>
   <si>
-    <t>En esta ficha se realiza un compendio de los tours y focos turísticos representativos dentro de la zona de estudio. Se encuentran desde tours generalizados a lo largo del todo el país que contemplan la zona de estudio como una zona de paso hacia lugares turísticos con mayor difusión como lo es Tortuguero y Cahuita, hasta aquellos con actividades y promociones que comprenden el traslado y transporte hacia zonas puntuales donde se desarrollan actividades de índole recreacional como buceo y contemplación del paisaje natural, y en contraste, aquella con un interés histórico hacia la rehabilitación dentro del Casco Histórico </t>
+    <t>En esta ficha se realiza un compendio de los tours y focos turísticos representativos dentro de la zona de estudio. Se encuentran desde tours generalizados a lo largo del todo el país que contemplan la zona de estudio como una zona de paso hacia lugares turísticos con mayor difusión como lo es Tortuguero y Cahuita, hasta aquellos con actividades y promociones que comprenden el traslado y transporte hacia zonas puntuales donde se desarrollan actividades de índole recreacional como buceo y contemplación del paisaje natural, y en contraste, aquella con un interés histórico hacia la rehabilitación dentro del Casco Histórico</t>
   </si>
   <si>
     <t>Turismo</t>
@@ -916,7 +926,7 @@
     <t>G-02</t>
   </si>
   <si>
-    <t>Servicios Turísticos </t>
+    <t>Servicios Turísticos</t>
   </si>
   <si>
     <t>En esta ficha se abarca la oferta turística localizada principalmente en el Casco Histórico de Limón, y la Zona Americana. Se trata de hoteles de mediana escala en su mayoría de dos a tres pisos, con la excepción del Hotel Acón con una escala de cuatro niveles. En su mayoría no se cuenta con un registro histórico que permita saber su año de fundación y edad, no obstante, en su mayoría se encuentran asociados a recursos patrimoniales debido a su ubicación, especialmente destacados en festivales o actividades públicas que se realizan en espacios urbanos. Su tendencia general de programa y oferta de servicios responde a habitaciones, lavandería, restaurante y parqueo.</t>
@@ -931,33 +941,31 @@
 4. Hotel Acón: no se cuenta con información disponible en línea.
 5. Hotel Cerere: cuenta con Declaratoria Turística en el año 2019 (Cámara Costarricense de Hoteles et ál., 2019). Es también conocido como Aguas Claras que es la traducción de Cerere en bribrí.</t>
   </si>
+  <si>
+    <t>evaluacion_multicriterio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="HH:MM:SS" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS.000" numFmtId="168"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="169"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -966,44 +974,336 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164">
-</xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" xfId="0"/>
-    <xf numFmtId="165" xfId="0"/>
-    <xf numFmtId="166" xfId="0"/>
-    <xf numFmtId="167" xfId="0"/>
-    <xf numFmtId="168" xfId="0"/>
-    <xf numFmtId="169" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1024" width="15"/>
-    <col min="2" max="1024" width="15"/>
-    <col min="3" max="1024" width="15"/>
-    <col min="4" max="1024" width="15"/>
-    <col min="5" max="1024" width="15"/>
-    <col min="6" max="1024" width="15"/>
-    <col min="7" max="1024" width="15"/>
-    <col min="8" max="1024" width="15"/>
-    <col min="9" max="1024" width="15"/>
-    <col min="10" max="1024" width="15"/>
-    <col min="11" max="1024" width="15"/>
-    <col min="12" max="1024" width="15"/>
-    <col min="13" max="1024" width="15"/>
-    <col min="14" max="1024" width="15"/>
-    <col min="15" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1349,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="P1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1096,8 +1399,12 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="P2">
+        <f>L2+M2+N2+O2</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1143,8 +1450,12 @@
       <c r="O3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="P3">
+        <f t="shared" ref="P3:P41" si="0">L3+M3+N3+O3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1190,8 +1501,12 @@
       <c r="O4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1237,8 +1552,12 @@
       <c r="O5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1284,8 +1603,12 @@
       <c r="O6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1654,12 @@
       <c r="O7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1378,8 +1705,12 @@
       <c r="O8">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1425,8 +1756,12 @@
       <c r="O9">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1472,8 +1807,12 @@
       <c r="O10">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1519,8 +1858,12 @@
       <c r="O11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1566,8 +1909,12 @@
       <c r="O12">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1613,8 +1960,12 @@
       <c r="O13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -1660,8 +2011,12 @@
       <c r="O14">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -1707,8 +2062,12 @@
       <c r="O15">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -1754,8 +2113,12 @@
       <c r="O16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1801,8 +2164,12 @@
       <c r="O17">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -1848,8 +2215,12 @@
       <c r="O18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -1895,8 +2266,12 @@
       <c r="O19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -1942,8 +2317,12 @@
       <c r="O20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -1989,8 +2368,12 @@
       <c r="O21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2036,8 +2419,12 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -2083,8 +2470,12 @@
       <c r="O23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -2130,8 +2521,12 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -2177,8 +2572,12 @@
       <c r="O25">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -2224,8 +2623,12 @@
       <c r="O26">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -2271,8 +2674,12 @@
       <c r="O27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -2318,8 +2725,12 @@
       <c r="O28">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -2365,8 +2776,12 @@
       <c r="O29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>221</v>
       </c>
@@ -2412,8 +2827,12 @@
       <c r="O30">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>228</v>
       </c>
@@ -2459,8 +2878,12 @@
       <c r="O31">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -2506,8 +2929,12 @@
       <c r="O32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -2553,8 +2980,12 @@
       <c r="O33">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>245</v>
       </c>
@@ -2600,8 +3031,12 @@
       <c r="O34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>250</v>
       </c>
@@ -2647,8 +3082,12 @@
       <c r="O35">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>258</v>
       </c>
@@ -2694,8 +3133,12 @@
       <c r="O36">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>262</v>
       </c>
@@ -2741,8 +3184,12 @@
       <c r="O37">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>269</v>
       </c>
@@ -2788,8 +3235,12 @@
       <c r="O38">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>274</v>
       </c>
@@ -2835,8 +3286,12 @@
       <c r="O39">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -2882,8 +3337,12 @@
       <c r="O40">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>291</v>
       </c>
@@ -2929,7 +3388,12 @@
       <c r="O41">
         <v>0.75</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>